--- a/meta/program/BlancoKeyGeneratorKtKeyStructure.xlsx
+++ b/meta/program/BlancoKeyGeneratorKtKeyStructure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoKeyGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26332C78-CC30-1045-B0A5-03A178E6E8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FD6131-EE3A-D249-A104-978AD497B826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28300" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="12980" windowWidth="24540" windowHeight="13840" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -282,6 +282,14 @@
   </si>
   <si>
     <t>valuePart</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>new java.util.ArrayList&lt;&gt;()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>List&lt;blanco.keygeneratorkt.valueobject.BlancoKeyGeneratorKtKeyPhrase&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1237,8 +1245,8 @@
   </sheetPr>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1555,16 +1563,18 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="40">
-        <f t="shared" ref="A29:A50" si="0">A28+1</f>
+        <f t="shared" ref="A29:A32" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="41" t="s">
         <v>47</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="42"/>
+        <v>50</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>49</v>
+      </c>
       <c r="E29" s="42" t="s">
         <v>35</v>
       </c>
@@ -1580,9 +1590,11 @@
         <v>48</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="42"/>
+        <v>50</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>49</v>
+      </c>
       <c r="E30" s="42" t="s">
         <v>42</v>
       </c>
